--- a/Data/feeds.xlsx
+++ b/Data/feeds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/178b79c87036536f/UiPath/PattayaNewsBot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/178b79c87036536f/UiPath/PattayaNewsBot/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_AD4DB114E441178AC67DF4569653DDCE683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C87FABC-487D-4FF1-A8EF-7BC681E50317}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_AD4DB114E441178AC67DF4569653DDCE683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A8631DC-6E11-4511-9A16-3ABFF2E52556}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,48 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>https://der-farang.com/de/rss</t>
   </si>
   <si>
-    <t>https://www.pattayablatt.com/feed</t>
-  </si>
-  <si>
-    <t>https://thailandtip.info/feed/</t>
-  </si>
-  <si>
     <t>Feed</t>
-  </si>
-  <si>
-    <t>https://www.spiegel.de/schlagzeilen/index.rss</t>
-  </si>
-  <si>
-    <t>https://www.n-tv.de/rss</t>
-  </si>
-  <si>
-    <t>https://www.schoenes-thailand.at/feed</t>
-  </si>
-  <si>
-    <t>https://www.handelsblatt.com/contentexport/feed/politik</t>
-  </si>
-  <si>
-    <t>https://bangkokjack.com/feed/</t>
-  </si>
-  <si>
-    <t>https://www.zdf.de/rss/zdf/nachrichten</t>
-  </si>
-  <si>
-    <t>https://rss.dw.com/xml/rss-de-all</t>
-  </si>
-  <si>
-    <t>https://www.tatnews.org/feed/</t>
-  </si>
-  <si>
-    <t>https://www.stern.de/feed/standard/alle-nachrichten/</t>
-  </si>
-  <si>
-    <t>https://www.wochenblitz.com/feed.rss</t>
   </si>
 </sst>
 </file>
@@ -404,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +381,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -425,71 +389,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{7221370C-4637-4FBB-A32A-50B978C7BFF1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>